--- a/data/trans_dic/P24_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P24_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con problemas de sueño con bastante o mucha frecuencia</t>
+          <t>Población con problemas de sueño con bastante o mucha frecuencia (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>31,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>28,9%</t>
+          <t>35,65%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>49,22%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,25%</t>
+          <t>50,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>32,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>38,0%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>27,87%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>42,4%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>33,74%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>19,53%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>14,39%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>24,22%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,54; 36,37</t>
+          <t>15,45; 50,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,37; 41,74</t>
+          <t>18,87; 52,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,06; 28,74</t>
+          <t>6,6; 33,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,68; 25,22</t>
+          <t>3,59; 32,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,23; 62,27</t>
+          <t>8,91; 41,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,46; 46,76</t>
+          <t>36,62; 65,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,82; 33,83</t>
+          <t>19,21; 45,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,7; 25,72</t>
+          <t>10,88; 35,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,46; 46,38</t>
+          <t>6,23; 28,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,98; 39,26</t>
+          <t>16,04; 44,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,11; 27,05</t>
+          <t>31,72; 53,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,76; 21,1</t>
+          <t>23,41; 44,44</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>11,67; 29,35</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>7,38; 24,82</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>14,98; 35,79</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,45%</t>
+          <t>23,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>48,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,94%</t>
+          <t>38,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>33,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>32,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>25,88%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>26,9%</t>
+          <t>45,62%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>23,6%</t>
+          <t>24,81%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>28,43%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>21,58%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>18,7%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>47,52%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,92; 21,8</t>
+          <t>3,82; 23,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,42; 45,39</t>
+          <t>8,04; 56,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,79; 28,23</t>
+          <t>3,91; 24,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,8; 20,82</t>
+          <t>4,5; 25,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,35; 47,2</t>
+          <t>18,66; 78,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,66; 42,15</t>
+          <t>27,22; 51,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,61; 41,24</t>
+          <t>21,13; 48,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,05; 36,52</t>
+          <t>21,33; 45,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,26; 32,01</t>
+          <t>15,63; 37,98</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,58; 38,57</t>
+          <t>32,81; 60,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,79; 31,02</t>
+          <t>16,48; 34,97</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,08; 25,69</t>
+          <t>17,9; 47,47</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>14,16; 30,95</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>11,81; 27,41</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>33,35; 65,78</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>25,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>36,62%</t>
+          <t>28,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>33,09%</t>
+          <t>38,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>35,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>33,15%</t>
+          <t>27,92%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>33,38%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>27,95%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>30,72%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>31,54%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>25,38%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>22,02%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>24,94%</t>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>26,5%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>28,15%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,39; 30,27</t>
+          <t>10,0; 30,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,81; 24,76</t>
+          <t>16,34; 37,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,77; 26,54</t>
+          <t>11,72; 32,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,78; 23,85</t>
+          <t>7,61; 28,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,82; 44,46</t>
+          <t>16,89; 40,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,47; 41,28</t>
+          <t>29,0; 48,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,74; 32,94</t>
+          <t>26,31; 44,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,98; 40,89</t>
+          <t>20,38; 38,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,35; 35,91</t>
+          <t>25,02; 43,27</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,16; 31,04</t>
+          <t>20,26; 37,95</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,25; 27,27</t>
+          <t>23,54; 39,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,65; 30,24</t>
+          <t>24,51; 38,71</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>18,95; 32,21</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>20,4; 33,33</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>21,27; 35,96</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,31%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>26,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>24,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,28%</t>
+          <t>26,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>39,15%</t>
+          <t>36,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>40,73%</t>
+          <t>40,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>41,14%</t>
+          <t>38,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>30,54%</t>
+          <t>36,96%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>31,87%</t>
+          <t>35,96%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>33,37%</t>
+          <t>29,09%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>32,35%</t>
+          <t>33,74%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>33,05%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>30,82%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>31,16%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,71; 30,11</t>
+          <t>13,07; 32,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,38; 31,12</t>
+          <t>18,01; 37,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,88; 32,33</t>
+          <t>17,35; 37,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,79; 30,15</t>
+          <t>15,41; 34,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,92; 45,1</t>
+          <t>17,13; 36,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,15; 46,81</t>
+          <t>26,64; 45,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,25; 47,91</t>
+          <t>31,5; 50,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,35; 48,5</t>
+          <t>29,4; 48,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,13; 35,91</t>
+          <t>28,6; 46,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,6; 37,65</t>
+          <t>26,81; 45,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>28,2; 39,21</t>
+          <t>22,95; 35,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>27,06; 37,8</t>
+          <t>26,71; 40,98</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>26,77; 40,69</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>25,3; 38,54</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>24,96; 38,51</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>20,03%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>29,73%</t>
+          <t>36,98%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>37,4%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>30,56%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>41,91%</t>
+          <t>29,94%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>43,43%</t>
+          <t>41,32%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>45,65%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>36,34%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>36,73%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>30,38%</t>
+          <t>33,99%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>39,01%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>29,35%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>28,19%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,61; 25,87</t>
+          <t>11,81; 30,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,59; 43,3</t>
+          <t>24,16; 52,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,56; 43,14</t>
+          <t>25,0; 53,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,27; 26,6</t>
+          <t>8,7; 27,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,9; 33,18</t>
+          <t>12,3; 31,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,94; 37,23</t>
+          <t>18,78; 45,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,0; 51,81</t>
+          <t>18,84; 44,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,16; 53,06</t>
+          <t>28,37; 54,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,77; 27,15</t>
+          <t>32,05; 59,66</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,65; 35,72</t>
+          <t>23,27; 50,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>29,9; 44,48</t>
+          <t>17,32; 33,27</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>24,66; 37,12</t>
+          <t>25,44; 45,84</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>30,41; 50,9</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>21,52; 38,5</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>19,84; 38,39</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>20,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,37%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>32,41%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>37,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>35,87%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>31,98%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>55,13%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>27,68%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>29,36%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>27,01%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>44,21%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,09; 25,7</t>
+          <t>2,43; 20,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,06; 26,65</t>
+          <t>7,05; 30,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,38; 29,52</t>
+          <t>9,99; 35,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,72; 30,79</t>
+          <t>9,65; 36,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,87; 35,05</t>
+          <t>15,6; 42,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,86; 43,85</t>
+          <t>11,12; 35,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,6; 37,15</t>
+          <t>24,36; 53,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,4; 38,55</t>
+          <t>22,64; 51,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,18; 27,97</t>
+          <t>19,36; 47,66</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,31; 33,81</t>
+          <t>38,29; 73,12</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>16,4; 31,33</t>
+          <t>9,39; 25,63</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,66; 32,7</t>
+          <t>18,15; 38,11</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>20,52; 40,8</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>18,08; 38,08</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>32,41; 57,57</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>27,26%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>34,92%</t>
+          <t>30,1%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>33,44%</t>
+          <t>36,76%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>35,32%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>32,57%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>31,45%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>38,27%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>28,13%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>31,59%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>27,52%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>28,35%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>26,41%</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>24,3%</t>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>27,96%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>24,58%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>34,3%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,7; 22,79</t>
+          <t>14,3; 22,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,99; 27,44</t>
+          <t>21,64; 34,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,78; 25,58</t>
+          <t>18,36; 28,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,64; 20,45</t>
+          <t>13,03; 21,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,92; 38,83</t>
+          <t>22,63; 42,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,63; 37,26</t>
+          <t>31,93; 42,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,29; 34,81</t>
+          <t>30,74; 40,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>27,83; 35,73</t>
+          <t>27,84; 37,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,02; 30,14</t>
+          <t>26,96; 36,05</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>25,52; 31,21</t>
+          <t>33,23; 45,25</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>23,93; 29,21</t>
+          <t>24,62; 31,89</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>21,55; 26,96</t>
+          <t>27,67; 35,56</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>24,34; 31,5</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>21,46; 27,96</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>29,95; 40,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con problemas de sueño con bastante o mucha frecuencia (tasa de respuesta: 99,93%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>27218</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>38150</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>18133</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>17440</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>30018</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>59134</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>43172</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25970</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>18551</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>40545</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>86351</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>81321</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>44103</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>35991</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>70563</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13301; 43471</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>20191; 56497</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6975; 34944</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4575; 41731</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12985; 60708</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>43050; 77136</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>25742; 60956</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13065; 42744</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7635; 34402</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>23337; 65095</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>64602; 109562</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>56415; 107121</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>26345; 66275</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>18455; 62069</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>43636; 104264</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15701</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>40032</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17020</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>19785</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>111281</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>51309</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>54895</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>41276</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>32690</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>74073</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>67010</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>94926</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>58296</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>52475</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>185353</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5229; 31519</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>13564; 94532</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5604; 34945</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6938; 39493</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>42495; 178375</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>36291; 68482</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>34881; 79403</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>27028; 57233</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>19744; 47975</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>53277; 98190</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>44518; 94455</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>59760; 158463</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>38237; 83596</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>33133; 76918</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>130103; 256589</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>25966</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>41322</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>28798</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>22673</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>51208</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>83142</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>93069</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>58453</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>66914</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>66996</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>109108</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>134391</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>87251</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>89586</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>118204</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13979; 42112</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>26474; 61441</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15745; 43742</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10473; 39469</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>30440; 72854</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>62473; 104928</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>69489; 118697</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>42668; 81406</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>50147; 86747</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>48563; 90973</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>83589; 139665</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>104439; 164958</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>65131; 110708</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>68986; 112685</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>89330; 151028</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>33886</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>48199</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>42790</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>37656</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>52545</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>69305</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>88464</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>71930</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>63004</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>76498</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>103191</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>136662</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>114721</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>100660</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>129043</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>21365; 53371</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>33621; 69108</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>27974; 59880</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>24067; 53731</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>34500; 73987</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>50965; 87774</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>68792; 111082</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>54660; 89798</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>48750; 78428</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>57034; 96726</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>81402; 126019</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>108180; 165979</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>92950; 141263</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>82635; 125879</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>103378; 159477</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>27818</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>58210</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>49402</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>21042</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>32422</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>31623</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>34787</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>38080</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>42305</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>49806</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>59441</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>92997</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>87481</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>63347</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>82228</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>16400; 41821</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>38034; 82177</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>33014; 70724</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10722; 33421</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>19020; 48945</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>19436; 46871</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>21890; 52112</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>26143; 50028</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>29701; 55284</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>31892; 69447</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>41983; 80641</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>69615; 125426</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>68196; 114134</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>46447; 83102</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>57860; 111986</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6974</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>17006</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>18794</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>18845</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>37907</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>24610</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>51347</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>37715</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>35367</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>116231</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>31584</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>68352</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>56509</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>54211</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>154138</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2190; 18684</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>7704; 32837</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>8722; 30652</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>8702; 32585</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>21501; 58895</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>11898; 38501</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>33516; 73594</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>23803; 54003</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>21413; 52711</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>80725; 154155</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>18526; 50567</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>44825; 94109</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>39494; 78537</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>36285; 76445</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>113014; 200701</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>137561</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>242918</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>174937</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>137439</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>315381</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>319124</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>365732</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>273425</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>258831</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>424148</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>456685</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>608651</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>448362</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>396270</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>739529</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>108010; 172583</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>192840; 305628</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>140316; 216836</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>102832; 172836</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>237040; 443082</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>277155; 365328</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>318254; 417663</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>233652; 314793</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>221928; 296736</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>368204; 501480</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>399718; 517702</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>533093; 685056</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>390224; 505042</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>345905; 450719</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>645731; 868391</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>